--- a/Data/EC/NIT-8001324800.xlsx
+++ b/Data/EC/NIT-8001324800.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C3DA61-D1B1-4FFF-8390-171D8984E3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8375B064-723F-4A89-B184-AAFF11672C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4095F94B-6C79-4F03-BCF5-8EB9C4353BF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{452EC683-C411-4831-96E4-CB1953F5023A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,40 +65,40 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73139940</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL MENESES ROJAS</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>45525440</t>
+  </si>
+  <si>
+    <t>ANGELICA MARIA GALVIS AYAZO</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
     <t>73091771</t>
   </si>
   <si>
     <t>ANTONIO JOSE STAMBULIE SAER</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>73139940</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL MENESES ROJAS</t>
-  </si>
-  <si>
-    <t>45525440</t>
-  </si>
-  <si>
-    <t>ANGELICA MARIA GALVIS AYAZO</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C735FB2-2706-559A-8E08-478806ADD397}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9506C511-B9A7-8681-6F73-6EC451D5A91B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E502F8DD-40BE-48D9-A3C8-8A1C595C0E57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71852FB9-476A-4065-8ADC-BE4AF965FEC0}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1061,13 +1061,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>80000</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>2000000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1078,19 +1078,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1101,10 +1101,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
@@ -1113,7 +1113,7 @@
         <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1124,10 +1124,10 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>17</v>
@@ -1136,7 +1136,7 @@
         <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1147,10 +1147,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>18</v>
@@ -1159,7 +1159,7 @@
         <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1170,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F23" s="24">
-        <v>31249</v>
+        <v>80000</v>
       </c>
       <c r="G23" s="24">
-        <v>737717</v>
+        <v>2000000</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
